--- a/data/trans_dic/P36BPD01_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,18; 96,31</t>
+          <t>91,2; 96,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,66; 93,75</t>
+          <t>88,63; 93,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,88; 94,54</t>
+          <t>90,77; 94,54</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,28; 88,88</t>
+          <t>80,54; 89,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,47; 89,69</t>
+          <t>84,24; 89,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,61; 88,64</t>
+          <t>82,99; 88,34</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,75; 99,95</t>
+          <t>98,8; 99,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,63; 99,63</t>
+          <t>97,48; 99,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,44; 99,68</t>
+          <t>98,43; 99,67</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,04; 99,27</t>
+          <t>96,18; 99,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,61; 99,13</t>
+          <t>94,55; 99,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,17; 98,94</t>
+          <t>95,77; 98,87</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,81; 97,75</t>
+          <t>92,1; 97,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,29; 98,26</t>
+          <t>94,02; 98,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,16; 97,62</t>
+          <t>94,18; 97,62</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98,03; 99,88</t>
+          <t>97,99; 99,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,29; 99,21</t>
+          <t>95,37; 99,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97,37; 99,3</t>
+          <t>97,28; 99,34</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,46; 98,32</t>
+          <t>95,47; 98,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>95,82; 98,63</t>
+          <t>95,74; 98,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,15; 98,19</t>
+          <t>96,17; 98,22</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>93,07; 96,54</t>
+          <t>93,03; 96,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>94,59; 97,08</t>
+          <t>94,37; 97,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>94,35; 96,53</t>
+          <t>94,24; 96,48</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>94,06; 95,88</t>
+          <t>93,97; 95,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>94,72; 96,12</t>
+          <t>94,74; 96,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>94,68; 95,78</t>
+          <t>94,56; 95,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36BPD01_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>93,01%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,2; 96,37</t>
+          <t>91,37; 96,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,63; 93,68</t>
+          <t>88,36; 93,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,77; 94,54</t>
+          <t>90,84; 94,71</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>85,09%</t>
+          <t>84,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>86,16%</t>
+          <t>85,81%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,54; 89,09</t>
+          <t>79,36; 88,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,24; 89,52</t>
+          <t>84,25; 89,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,99; 88,34</t>
+          <t>82,16; 88,08</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,8; 99,95</t>
+          <t>98,82; 99,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,48; 99,62</t>
+          <t>97,46; 99,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,43; 99,67</t>
+          <t>98,44; 99,66</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,26%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>98,22%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,18; 99,28</t>
+          <t>96,33; 99,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,55; 99,11</t>
+          <t>95,37; 99,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,77; 98,87</t>
+          <t>96,18; 99,04</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>96,34%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>92,1; 97,81</t>
+          <t>92,42; 97,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,02; 98,28</t>
+          <t>93,83; 98,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,18; 97,62</t>
+          <t>94,25; 97,58</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>97,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>98,68%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>97,99; 99,83</t>
+          <t>98,04; 99,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,37; 99,09</t>
+          <t>95,42; 99,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97,28; 99,34</t>
+          <t>97,32; 99,34</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,59%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,47; 98,32</t>
+          <t>95,59; 98,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>95,74; 98,6</t>
+          <t>96,22; 99,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,17; 98,22</t>
+          <t>96,46; 98,55</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>96,05%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>93,03; 96,42</t>
+          <t>94,16; 98,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>94,37; 97,15</t>
+          <t>94,47; 97,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>94,24; 96,48</t>
+          <t>94,84; 97,67</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,39%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>93,97; 95,83</t>
+          <t>94,09; 96,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>94,74; 96,14</t>
+          <t>94,86; 96,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>94,56; 95,75</t>
+          <t>94,66; 96,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36BPD01_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,37; 96,57</t>
+          <t>91,37; 96,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,36; 93,58</t>
+          <t>88,38; 93,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,84; 94,71</t>
+          <t>90,81; 94,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,36; 88,78</t>
+          <t>78,25; 88,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,25; 89,5</t>
+          <t>84,21; 89,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,16; 88,08</t>
+          <t>82,85; 88,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,82; 99,95</t>
+          <t>98,62; 99,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,46; 99,61</t>
+          <t>97,49; 99,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,44; 99,66</t>
+          <t>98,46; 99,69</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,33; 99,31</t>
+          <t>96,42; 99,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,37; 99,3</t>
+          <t>95,36; 99,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,18; 99,04</t>
+          <t>96,4; 99,08</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>92,42; 97,82</t>
+          <t>91,88; 97,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,83; 98,22</t>
+          <t>94,18; 98,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,25; 97,58</t>
+          <t>94,22; 97,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,82</t>
+          <t>98,04; 99,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,42; 99,09</t>
+          <t>95,77; 99,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97,32; 99,34</t>
+          <t>97,37; 99,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,59; 98,39</t>
+          <t>95,58; 98,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>96,22; 99,02</t>
+          <t>96,42; 99,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,46; 98,55</t>
+          <t>96,48; 98,51</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>94,16; 98,22</t>
+          <t>94,12; 98,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>94,47; 97,12</t>
+          <t>94,43; 97,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>94,84; 97,67</t>
+          <t>94,89; 97,66</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>94,09; 96,29</t>
+          <t>94,22; 96,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>94,86; 96,49</t>
+          <t>94,88; 96,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>94,66; 96,04</t>
+          <t>94,8; 96,1</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que utilizan como principal grasa para cocinar el aceite de oliva</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>293890</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>265155</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>559044</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>284552; 300183</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>255976; 271250</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>545817; 568310</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>430157</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>445534</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>875691</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>398391; 449808</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>430657; 456719</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>845460; 901338</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>313052</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>344289</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>657342</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>309769; 313927</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>339248; 346608</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>651873; 660032</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>307337</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>466938</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>774273</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>301380; 310444</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>453652; 472571</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>759925; 781010</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>171234</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>201615</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>372849</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>164224; 174492</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>196159; 204720</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>364640; 377673</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>267930</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>251825</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>519755</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>264351; 269302</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>246188; 255104</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>512848; 523388</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1505</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>600355</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>831035</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1431389</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>590129; 607525</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>818861; 841051</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1415023; 1444861</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1722</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>892491</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>687362</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1579854</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>874099; 915142</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>676192; 694857</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1560770; 1606324</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>3185</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>5093</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>8278</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3276446</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3493752</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>6770198</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>3242677; 3318017</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3468372; 3524900</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>6728011; 6820115</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>